--- a/data/PVT_Data.xlsx
+++ b/data/PVT_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjdaqua\Python\Projects\HGOR\Code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19582E4C-B088-4DA9-96BB-9ABBB985D2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B570FA5-B437-4EF5-9B0C-2A339F768ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$1:$N$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$2:$O$156</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -975,7 +975,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="35">
   <si>
     <t>Oil API at 60 F (MSST)</t>
   </si>
@@ -1074,6 +1074,9 @@
   </si>
   <si>
     <t>RS</t>
+  </si>
+  <si>
+    <t>Reservoir conditions</t>
   </si>
   <si>
     <t>gamma_s</t>
@@ -1604,33 +1607,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:O156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="34.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" style="14" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" customWidth="1"/>
     <col min="9" max="10" width="31.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="29.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="21.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="45.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.5703125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="15" max="15" width="15.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
@@ -1669,7 +1673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -1680,7 +1684,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>18</v>
@@ -1710,8 +1714,11 @@
       <c r="N2" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1752,8 +1759,12 @@
       <c r="N3" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="str">
+        <f>IF(L3&gt;B3,"'Undersaturated","Saturated")</f>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1796,8 +1807,12 @@
       <c r="N4" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="2" t="str">
+        <f t="shared" ref="O4:O67" si="0">IF(L4&gt;B4,"'Undersaturated","Saturated")</f>
+        <v>Saturated</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1838,8 +1853,12 @@
       <c r="N5" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1882,8 +1901,12 @@
       <c r="N6" s="32">
         <v>5.5599417318106506E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1924,8 +1947,12 @@
       <c r="N7" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1966,8 +1993,12 @@
       <c r="N8" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2010,8 +2041,12 @@
       <c r="N9" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturated</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -2052,8 +2087,12 @@
       <c r="N10" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2094,8 +2133,12 @@
       <c r="N11" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2136,8 +2179,12 @@
       <c r="N12" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -2178,8 +2225,12 @@
       <c r="N13" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2220,8 +2271,12 @@
       <c r="N14" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2262,8 +2317,12 @@
       <c r="N15" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2304,8 +2363,12 @@
       <c r="N16" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2346,8 +2409,12 @@
       <c r="N17" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -2388,8 +2455,12 @@
       <c r="N18" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -2430,8 +2501,12 @@
       <c r="N19" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -2472,8 +2547,12 @@
       <c r="N20" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -2514,8 +2593,12 @@
       <c r="N21" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -2556,8 +2639,12 @@
       <c r="N22" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2598,8 +2685,12 @@
       <c r="N23" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -2640,8 +2731,12 @@
       <c r="N24" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -2684,8 +2779,12 @@
       <c r="N25" s="32">
         <v>6.207016411351391E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2726,8 +2825,12 @@
       <c r="N26" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -2771,8 +2874,12 @@
       <c r="N27" s="32">
         <v>6.2735650788273449E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -2813,8 +2920,12 @@
       <c r="N28" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -2855,8 +2966,12 @@
       <c r="N29" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -2897,8 +3012,12 @@
       <c r="N30" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -2939,8 +3058,12 @@
       <c r="N31" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -2981,8 +3104,12 @@
       <c r="N32" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -3023,8 +3150,12 @@
       <c r="N33" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturated</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -3065,8 +3196,12 @@
       <c r="N34" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -3107,8 +3242,12 @@
       <c r="N35" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -3149,8 +3288,12 @@
       <c r="N36" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -3191,8 +3334,12 @@
       <c r="N37" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
@@ -3233,8 +3380,12 @@
       <c r="N38" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>14</v>
       </c>
@@ -3275,8 +3426,12 @@
       <c r="N39" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -3317,8 +3472,12 @@
       <c r="N40" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -3359,8 +3518,12 @@
       <c r="N41" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
@@ -3401,8 +3564,12 @@
       <c r="N42" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -3443,8 +3610,12 @@
       <c r="N43" s="32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>14</v>
       </c>
@@ -3485,8 +3656,12 @@
       <c r="N44" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
@@ -3527,8 +3702,12 @@
       <c r="N45" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>14</v>
       </c>
@@ -3569,8 +3748,12 @@
       <c r="N46" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturated</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -3613,8 +3796,12 @@
       <c r="N47" s="32">
         <v>5.7769407632494139E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -3655,8 +3842,12 @@
       <c r="N48" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>14</v>
       </c>
@@ -3697,8 +3888,12 @@
       <c r="N49" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>14</v>
       </c>
@@ -3739,8 +3934,12 @@
       <c r="N50" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
@@ -3783,8 +3982,12 @@
       <c r="N51" s="32">
         <v>5.6165260662974735E-4</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>14</v>
       </c>
@@ -3825,8 +4028,12 @@
       <c r="N52" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>14</v>
       </c>
@@ -3867,8 +4074,12 @@
       <c r="N53" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>14</v>
       </c>
@@ -3911,8 +4122,12 @@
       <c r="N54" s="32">
         <v>5.5389080596651176E-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
@@ -3953,8 +4168,12 @@
       <c r="N55" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>14</v>
       </c>
@@ -3995,8 +4214,12 @@
       <c r="N56" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>14</v>
       </c>
@@ -4039,8 +4262,12 @@
       <c r="N57" s="32">
         <v>6.4085310365158106E-4</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>14</v>
       </c>
@@ -4082,8 +4309,12 @@
       <c r="N58" s="32">
         <v>6.4908090144355588E-4</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>14</v>
       </c>
@@ -4126,8 +4357,12 @@
       <c r="N59" s="32">
         <v>5.3544369541820829E-4</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>14</v>
       </c>
@@ -4170,8 +4405,12 @@
       <c r="N60" s="32">
         <v>6.0055371052110038E-4</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>14</v>
       </c>
@@ -4213,8 +4452,12 @@
       <c r="N61" s="32">
         <v>6.0933996295213034E-4</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>14</v>
       </c>
@@ -4256,8 +4499,12 @@
       <c r="N62" s="32">
         <v>5.7037907393253553E-4</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>14</v>
       </c>
@@ -4300,8 +4547,12 @@
       <c r="N63" s="32">
         <v>6.0055371052110038E-4</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>14</v>
       </c>
@@ -4344,8 +4595,12 @@
       <c r="N64" s="32">
         <v>5.4414957583540568E-4</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>14</v>
       </c>
@@ -4388,8 +4643,12 @@
       <c r="N65" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>14</v>
       </c>
@@ -4430,8 +4689,12 @@
       <c r="N66" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>14</v>
       </c>
@@ -4472,8 +4735,12 @@
       <c r="N67" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O67" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>14</v>
       </c>
@@ -4514,8 +4781,12 @@
       <c r="N68" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O68" s="2" t="str">
+        <f t="shared" ref="O68:O131" si="1">IF(L68&gt;B68,"'Undersaturated","Saturated")</f>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>14</v>
       </c>
@@ -4556,8 +4827,12 @@
       <c r="N69" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>14</v>
       </c>
@@ -4598,8 +4873,12 @@
       <c r="N70" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>14</v>
       </c>
@@ -4640,8 +4919,12 @@
       <c r="N71" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>14</v>
       </c>
@@ -4682,8 +4965,12 @@
       <c r="N72" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>14</v>
       </c>
@@ -4726,8 +5013,12 @@
       <c r="N73" s="32">
         <v>5.3098566869680191E-4</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
@@ -4770,8 +5061,12 @@
       <c r="N74" s="32">
         <v>6.1396776669224863E-4</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>14</v>
       </c>
@@ -4814,8 +5109,12 @@
       <c r="N75" s="32">
         <v>5.8540811726895403E-4</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>14</v>
       </c>
@@ -4856,8 +5155,12 @@
       <c r="N76" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>14</v>
       </c>
@@ -4898,8 +5201,12 @@
       <c r="N77" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>14</v>
       </c>
@@ -4940,8 +5247,12 @@
       <c r="N78" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>14</v>
       </c>
@@ -4984,8 +5295,12 @@
       <c r="N79" s="32">
         <v>5.9466466859338027E-4</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>14</v>
       </c>
@@ -5026,8 +5341,12 @@
       <c r="N80" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>14</v>
       </c>
@@ -5068,8 +5387,12 @@
       <c r="N81" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>14</v>
       </c>
@@ -5110,8 +5433,12 @@
       <c r="N82" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>14</v>
       </c>
@@ -5154,8 +5481,12 @@
       <c r="N83" s="32">
         <v>5.5541978627446625E-4</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>14</v>
       </c>
@@ -5198,8 +5529,12 @@
       <c r="N84" s="32">
         <v>5.521140446770685E-4</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>14</v>
       </c>
@@ -5240,8 +5575,12 @@
       <c r="N85" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>14</v>
       </c>
@@ -5282,8 +5621,12 @@
       <c r="N86" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>14</v>
       </c>
@@ -5324,8 +5667,12 @@
       <c r="N87" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>14</v>
       </c>
@@ -5367,8 +5714,12 @@
       <c r="N88" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>14</v>
       </c>
@@ -5411,8 +5762,12 @@
       <c r="N89" s="32">
         <v>5.2765993372591233E-4</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>14</v>
       </c>
@@ -5453,8 +5808,12 @@
       <c r="N90" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>14</v>
       </c>
@@ -5495,8 +5854,12 @@
       <c r="N91" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>14</v>
       </c>
@@ -5537,8 +5900,12 @@
       <c r="N92" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>14</v>
       </c>
@@ -5579,8 +5946,12 @@
       <c r="N93" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>14</v>
       </c>
@@ -5621,8 +5992,12 @@
       <c r="N94" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>14</v>
       </c>
@@ -5663,8 +6038,12 @@
       <c r="N95" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>14</v>
       </c>
@@ -5705,8 +6084,12 @@
       <c r="N96" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>14</v>
       </c>
@@ -5747,8 +6130,12 @@
       <c r="N97" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>14</v>
       </c>
@@ -5789,8 +6176,12 @@
       <c r="N98" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -5831,8 +6222,12 @@
       <c r="N99" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>14</v>
       </c>
@@ -5875,8 +6270,12 @@
       <c r="N100" s="3">
         <v>5.4474318725192456E-4</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>14</v>
       </c>
@@ -5919,8 +6318,12 @@
       <c r="N101" s="3">
         <v>6.0341290338152595E-4</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>14</v>
       </c>
@@ -5961,8 +6364,12 @@
       <c r="N102" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>14</v>
       </c>
@@ -6003,8 +6410,12 @@
       <c r="N103" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>14</v>
       </c>
@@ -6045,8 +6456,12 @@
       <c r="N104" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturated</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>14</v>
       </c>
@@ -6087,8 +6502,12 @@
       <c r="N105" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O105" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturated</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>13</v>
       </c>
@@ -6129,8 +6548,12 @@
       <c r="N106" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
@@ -6171,8 +6594,12 @@
       <c r="N107" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
@@ -6213,8 +6640,12 @@
       <c r="N108" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O108" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -6255,8 +6686,12 @@
       <c r="N109" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O109" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
@@ -6297,8 +6732,12 @@
       <c r="N110" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O110" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>13</v>
       </c>
@@ -6339,8 +6778,12 @@
       <c r="N111" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O111" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>13</v>
       </c>
@@ -6381,8 +6824,12 @@
       <c r="N112" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O112" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>13</v>
       </c>
@@ -6423,8 +6870,12 @@
       <c r="N113" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O113" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
@@ -6465,8 +6916,12 @@
       <c r="N114" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O114" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>13</v>
       </c>
@@ -6507,8 +6962,12 @@
       <c r="N115" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O115" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>13</v>
       </c>
@@ -6549,8 +7008,12 @@
       <c r="N116" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O116" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>13</v>
       </c>
@@ -6591,8 +7054,12 @@
       <c r="N117" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O117" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -6633,8 +7100,12 @@
       <c r="N118" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O118" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
@@ -6675,8 +7146,12 @@
       <c r="N119" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O119" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>13</v>
       </c>
@@ -6717,8 +7192,12 @@
       <c r="N120" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O120" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
@@ -6759,8 +7238,12 @@
       <c r="N121" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O121" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>13</v>
       </c>
@@ -6802,8 +7285,12 @@
       <c r="N122" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
@@ -6844,8 +7331,12 @@
       <c r="N123" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O123" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -6886,8 +7377,12 @@
       <c r="N124" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O124" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>13</v>
       </c>
@@ -6928,8 +7423,12 @@
       <c r="N125" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O125" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
@@ -6970,8 +7469,12 @@
       <c r="N126" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O126" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
@@ -7012,8 +7515,12 @@
       <c r="N127" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O127" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>13</v>
       </c>
@@ -7054,8 +7561,12 @@
       <c r="N128" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O128" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>13</v>
       </c>
@@ -7097,8 +7608,12 @@
       <c r="N129" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O129" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>13</v>
       </c>
@@ -7139,8 +7654,12 @@
       <c r="N130" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O130" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>13</v>
       </c>
@@ -7181,8 +7700,12 @@
       <c r="N131" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O131" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>13</v>
       </c>
@@ -7223,8 +7746,12 @@
       <c r="N132" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O132" s="2" t="str">
+        <f t="shared" ref="O132:O156" si="2">IF(L132&gt;B132,"'Undersaturated","Saturated")</f>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>13</v>
       </c>
@@ -7265,8 +7792,12 @@
       <c r="N133" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O133" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>13</v>
       </c>
@@ -7307,8 +7838,12 @@
       <c r="N134" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O134" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>13</v>
       </c>
@@ -7349,8 +7884,12 @@
       <c r="N135" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O135" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>13</v>
       </c>
@@ -7391,8 +7930,12 @@
       <c r="N136" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O136" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>13</v>
       </c>
@@ -7433,8 +7976,12 @@
       <c r="N137" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O137" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
@@ -7475,8 +8022,12 @@
       <c r="N138" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O138" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -7517,8 +8068,12 @@
       <c r="N139" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O139" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>13</v>
       </c>
@@ -7559,8 +8114,12 @@
       <c r="N140" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O140" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>13</v>
       </c>
@@ -7601,8 +8160,12 @@
       <c r="N141" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O141" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>13</v>
       </c>
@@ -7643,8 +8206,12 @@
       <c r="N142" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O142" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>12</v>
       </c>
@@ -7685,8 +8252,12 @@
       <c r="N143" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O143" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>12</v>
       </c>
@@ -7727,8 +8298,12 @@
       <c r="N144" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O144" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>12</v>
       </c>
@@ -7769,8 +8344,12 @@
       <c r="N145" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O145" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -7811,8 +8390,12 @@
       <c r="N146" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O146" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>12</v>
       </c>
@@ -7853,8 +8436,12 @@
       <c r="N147" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O147" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>12</v>
       </c>
@@ -7895,8 +8482,12 @@
       <c r="N148" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O148" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>12</v>
       </c>
@@ -7937,8 +8528,12 @@
       <c r="N149" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O149" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>12</v>
       </c>
@@ -7979,8 +8574,12 @@
       <c r="N150" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O150" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>12</v>
       </c>
@@ -8021,8 +8620,12 @@
       <c r="N151" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O151" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>12</v>
       </c>
@@ -8063,8 +8666,12 @@
       <c r="N152" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O152" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>12</v>
       </c>
@@ -8105,8 +8712,12 @@
       <c r="N153" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O153" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>12</v>
       </c>
@@ -8147,8 +8758,12 @@
       <c r="N154" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O154" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>12</v>
       </c>
@@ -8189,8 +8804,12 @@
       <c r="N155" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O155" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
@@ -8231,9 +8850,13 @@
       <c r="N156" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="O156" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>'Undersaturated</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:N156" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:O156" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/data/PVT_Data.xlsx
+++ b/data/PVT_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjdaqua\Python\Projects\HGOR\Code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B570FA5-B437-4EF5-9B0C-2A339F768ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E183946-CC33-418D-B3E1-B814105CE97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34545" yWindow="900" windowWidth="17940" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -975,7 +975,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="37">
   <si>
     <t>Oil API at 60 F (MSST)</t>
   </si>
@@ -1043,15 +1043,6 @@
     <t>p</t>
   </si>
   <si>
-    <t>Bg_psat</t>
-  </si>
-  <si>
-    <t>Bo_psat</t>
-  </si>
-  <si>
-    <t>visc_o_psat</t>
-  </si>
-  <si>
     <t>c_o_psat</t>
   </si>
   <si>
@@ -1080,6 +1071,21 @@
   </si>
   <si>
     <t>gamma_s</t>
+  </si>
+  <si>
+    <t>visc_o</t>
+  </si>
+  <si>
+    <t>p_res</t>
+  </si>
+  <si>
+    <t>Bo_pres</t>
+  </si>
+  <si>
+    <t>Bg_pres</t>
+  </si>
+  <si>
+    <t>Rgo</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1619,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1648,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>10</v>
@@ -1678,44 +1684,44 @@
         <v>15</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8883,7 +8889,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="42">
         <v>3405000</v>
@@ -8891,7 +8897,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>2.7753999999999999</v>
@@ -8899,7 +8905,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="42">
         <v>9.9999999999999995E-7</v>
@@ -8919,15 +8925,15 @@
         <v>0</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>17</v>
@@ -8939,7 +8945,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">

--- a/data/PVT_Data.xlsx
+++ b/data/PVT_Data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjdaqua\Python\Projects\HGOR\Code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E183946-CC33-418D-B3E1-B814105CE97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA3C2D9-C4B7-4ECE-8E62-9B96FA4FD7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34545" yWindow="900" windowWidth="17940" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$2:$O$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$O$156</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1619,7 +1619,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -8862,7 +8862,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O156" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O156" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/data/PVT_Data.xlsx
+++ b/data/PVT_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjdaqua\Python\Projects\HGOR\Code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA3C2D9-C4B7-4ECE-8E62-9B96FA4FD7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D95C52-2BC7-4AF9-8DF4-614EC7C030C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$O$156</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1040,9 +1040,6 @@
     <t>Bg</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
     <t>c_o_psat</t>
   </si>
   <si>
@@ -1086,6 +1083,9 @@
   </si>
   <si>
     <t>Rgo</t>
+  </si>
+  <si>
+    <t>psat</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1619,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>10</v>
@@ -1684,19 +1684,19 @@
         <v>15</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>19</v>
@@ -1705,23 +1705,23 @@
         <v>20</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="O2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8889,7 +8889,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="42">
         <v>3405000</v>
@@ -8897,7 +8897,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>2.7753999999999999</v>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="42">
         <v>9.9999999999999995E-7</v>
@@ -8925,15 +8925,15 @@
         <v>0</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>17</v>
@@ -8945,7 +8945,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
